--- a/docs/不具合.xlsx
+++ b/docs/不具合.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\209040\Documents\work\tools\CodeChecker\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE734E-EEA5-4E1D-B1C6-560FDE720E76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1601F5B-7D15-4FA6-B60C-00249F92A36A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40560" yWindow="3780" windowWidth="29790" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>CodeChecker.Vsixが起動できない</t>
     <rPh sb="17" eb="19">
@@ -117,6 +117,68 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元来表示されないはずのエラー/警告メッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ガンライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該のファイルを開くとなぜか消える</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じエラーメッセージが２つ表示される</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分デバッグ実行とDLLのエラーの両方が出力されている</t>
+    <rPh sb="0" eb="2">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CA0064が表示される</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -510,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.4"/>
@@ -616,6 +678,36 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
